--- a/input_data_sheets/activity_timeline.xlsx
+++ b/input_data_sheets/activity_timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sailpoint\react-app2\input_data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4BF9C9-B035-4542-9698-A064CFAC3D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7DBE6-676A-4D18-8B4B-5B834A02D842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B1813BC-E1CC-4EA6-B8B8-BA628E34CD5D}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
